--- a/Data/EC/NIT-8904807829.xlsx
+++ b/Data/EC/NIT-8904807829.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F38FCDF-89E9-417C-BA4E-49C845C1A92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E99CCAF-9A37-47CC-AC50-51C7D4B1FC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{916C644A-2EB3-4E8F-843E-B09ABDFFBA47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{424DC0A1-ECDD-430D-B404-74BD9ED08278}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,67 +71,67 @@
     <t>SAMIR SAER DIAZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>622125973</t>
+  </si>
+  <si>
+    <t>JENNIFER ROSEMARY BRITISH CITIZEN</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>622125973</t>
-  </si>
-  <si>
-    <t>JENNIFER ROSEMARY BRITISH CITIZEN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8AE5EF5-934B-9C93-F4B4-97D161B0E8A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC986428-23BC-956F-3293-9CB44E64D88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C480E4A-6412-4F71-AA6A-F8C02AE920B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA9C710-C3D4-4274-AEF7-AB9D6C5AAE2C}">
   <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1085,22 +1085,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>24640</v>
@@ -1131,22 +1131,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1163,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>24640</v>
@@ -1177,22 +1177,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1223,22 +1223,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1255,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>24640</v>
@@ -1269,22 +1269,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>24640</v>
@@ -1315,22 +1315,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>24640</v>
@@ -1361,22 +1361,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1393,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>24640</v>
@@ -1407,22 +1407,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>24640</v>
@@ -1453,22 +1453,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>24640</v>
+        <v>111020</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>2775509</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1476,22 +1476,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G34" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1499,16 +1499,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>111020</v>
@@ -1522,22 +1522,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
         <v>111020</v>
@@ -1568,22 +1568,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G38" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
         <v>111020</v>
@@ -1614,22 +1614,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>111020</v>
@@ -1660,22 +1660,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G42" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1683,16 +1683,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
         <v>111020</v>
@@ -1706,22 +1706,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G44" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1729,16 +1729,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>111020</v>
@@ -1752,22 +1752,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F46" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G46" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F47" s="18">
         <v>111020</v>
@@ -1798,22 +1798,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F48" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G48" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1821,16 +1821,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>111020</v>
@@ -1844,22 +1844,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F50" s="18">
-        <v>111020</v>
+        <v>24640</v>
       </c>
       <c r="G50" s="18">
-        <v>2775509</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1867,16 +1867,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="21" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="F51" s="24">
         <v>111020</v>
